--- a/backend/receipt template.xlsx
+++ b/backend/receipt template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9c5bd70f7934313f/Documents/GitHub/LICCF/backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="136" documentId="14_{CE96C23C-147B-4734-A80C-45CC18B190AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDA0F632-486D-42FF-884E-B380C4C41D16}"/>
+  <xr:revisionPtr revIDLastSave="138" documentId="14_{CE96C23C-147B-4734-A80C-45CC18B190AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9197B88-F5C4-4102-9152-812810A41C88}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F77790AD-AB3C-48E5-9140-B2F1DCB19DD2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{F77790AD-AB3C-48E5-9140-B2F1DCB19DD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -497,43 +497,43 @@
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" customWidth="1"/>
+    <col min="1" max="1" width="33.26953125" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" customWidth="1"/>
-    <col min="7" max="7" width="32.28515625" customWidth="1"/>
-    <col min="9" max="9" width="33.140625" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" customWidth="1"/>
+    <col min="6" max="6" width="7.1796875" customWidth="1"/>
+    <col min="7" max="7" width="32.26953125" customWidth="1"/>
+    <col min="9" max="9" width="33.1796875" customWidth="1"/>
+    <col min="10" max="10" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
@@ -547,7 +547,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -558,7 +558,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -567,7 +567,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -576,7 +576,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -589,7 +589,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -602,12 +602,12 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -620,7 +620,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -633,7 +633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -643,47 +643,47 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>15</v>
       </c>
@@ -694,7 +694,7 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
@@ -705,7 +705,7 @@
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>14</v>
       </c>
